--- a/storage/temp.xlsx
+++ b/storage/temp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t>예약번호</t>
   </si>
@@ -95,67 +95,496 @@
     <t>취소사유</t>
   </si>
   <si>
+    <t>기타 (유입경로 구분 불가)</t>
+  </si>
+  <si>
+    <t>Npay</t>
+  </si>
+  <si>
+    <t>확정</t>
+  </si>
+  <si>
+    <t>일반</t>
+  </si>
+  <si>
+    <t>안영준</t>
+  </si>
+  <si>
+    <t>******2349</t>
+  </si>
+  <si>
+    <t>***@naver.com</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>19. 9. 12.(목) 오전 6:00~9:00</t>
+  </si>
+  <si>
+    <t>세미나실 3인실</t>
+  </si>
+  <si>
+    <t>신용카드</t>
+  </si>
+  <si>
+    <t>결제완료</t>
+  </si>
+  <si>
+    <t>2019-09-11 (수) 오후 14:16:05</t>
+  </si>
+  <si>
+    <t>2019-09-11 (수) 오후 14:16:24</t>
+  </si>
+  <si>
     <t>네이버 플레이스 - 상세페이지</t>
   </si>
   <si>
-    <t>Npay</t>
-  </si>
-  <si>
-    <t>확정</t>
-  </si>
-  <si>
-    <t>일반</t>
-  </si>
-  <si>
-    <t>조단비</t>
-  </si>
-  <si>
-    <t>******4699</t>
-  </si>
-  <si>
-    <t>***@naver.com</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>19. 8. 11.(일) 오전 3:30~5:00</t>
-  </si>
-  <si>
-    <t>세미나실 B</t>
-  </si>
-  <si>
-    <t>신용카드</t>
-  </si>
-  <si>
-    <t>결제완료</t>
-  </si>
-  <si>
-    <t>2019-08-09 (금) 오후 23:47:18</t>
-  </si>
-  <si>
-    <t>2019-08-09 (금) 오후 23:48:24</t>
+    <t>장지욱</t>
+  </si>
+  <si>
+    <t>******7650</t>
+  </si>
+  <si>
+    <t>19. 9. 12.(목) 오전 11:30~1:30</t>
+  </si>
+  <si>
+    <t>세미나실 6인실</t>
+  </si>
+  <si>
+    <t>무통장입금</t>
+  </si>
+  <si>
+    <t>2019-09-11 (수) 오후 16:53:23</t>
+  </si>
+  <si>
+    <t>2019-09-11 (수) 오후 18:23:46</t>
+  </si>
+  <si>
+    <t>네이버 모두</t>
+  </si>
+  <si>
+    <t>김유진</t>
+  </si>
+  <si>
+    <t>******4666</t>
+  </si>
+  <si>
+    <t>19. 9. 12.(목) 오전 9:00~11:30</t>
+  </si>
+  <si>
+    <t>2019-09-11 (수) 오후 21:33:10</t>
+  </si>
+  <si>
+    <t>2019-09-11 (수) 오후 21:33:54</t>
+  </si>
+  <si>
+    <t>19. 9. 12.(목) 오후 1:30~6:00</t>
+  </si>
+  <si>
+    <t>2019-09-11 (수) 오후 21:35:28</t>
+  </si>
+  <si>
+    <t>2019-09-11 (수) 오후 21:35:55</t>
+  </si>
+  <si>
+    <t>19. 9. 12.(목) 오후 7:30~10:00</t>
+  </si>
+  <si>
+    <t>2019-09-11 (수) 오후 21:36:50</t>
+  </si>
+  <si>
+    <t>2019-09-11 (수) 오후 21:37:15</t>
+  </si>
+  <si>
+    <t>이기암</t>
+  </si>
+  <si>
+    <t>******8626</t>
+  </si>
+  <si>
+    <t>19. 9. 14.(토) 오전 10:00~12:00</t>
+  </si>
+  <si>
+    <t>세미나실 8인실</t>
+  </si>
+  <si>
+    <t>2019-08-15 (목) 오전 7:49:18</t>
+  </si>
+  <si>
+    <t>2019-08-16 (금) 오후 15:48:28</t>
+  </si>
+  <si>
+    <t>19. 9. 14.(토) 오후 1:00~3:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 (목) 오전 7:50:35</t>
+  </si>
+  <si>
+    <t>2019-08-16 (금) 오후 15:49:48</t>
   </si>
   <si>
     <t>네이버 - 기타</t>
   </si>
   <si>
+    <t>한슬기</t>
+  </si>
+  <si>
+    <t>******2092</t>
+  </si>
+  <si>
+    <t>19. 9. 15.(일) 오전 9:00~1:00</t>
+  </si>
+  <si>
+    <t>2019-09-08 (일) 오후 20:22:53</t>
+  </si>
+  <si>
+    <t>2019-09-08 (일) 오후 20:23:17</t>
+  </si>
+  <si>
+    <t>안주희</t>
+  </si>
+  <si>
+    <t>******3416</t>
+  </si>
+  <si>
+    <t>19. 9. 15.(일) 오후 4:00~5:00</t>
+  </si>
+  <si>
+    <t>2019-09-08 (일) 오후 23:35:56</t>
+  </si>
+  <si>
+    <t>2019-09-09 (월) 오전 11:07:25</t>
+  </si>
+  <si>
+    <t>양연욱</t>
+  </si>
+  <si>
+    <t>******4030</t>
+  </si>
+  <si>
+    <t>19. 9. 15.(일) 오후 3:00~4:00</t>
+  </si>
+  <si>
+    <t>2019-09-11 (수) 오후 18:48:54</t>
+  </si>
+  <si>
+    <t>2019-09-11 (수) 오후 19:11:32</t>
+  </si>
+  <si>
+    <t>최미영</t>
+  </si>
+  <si>
+    <t>******3637</t>
+  </si>
+  <si>
+    <t>19. 9. 16.(월) 오전 9:00~12:00</t>
+  </si>
+  <si>
+    <t>포인트결제</t>
+  </si>
+  <si>
+    <t>2019-08-12 (월) 오후 15:13:39</t>
+  </si>
+  <si>
+    <t>2019-08-12 (월) 오후 15:13:59</t>
+  </si>
+  <si>
+    <t>취소</t>
+  </si>
+  <si>
+    <t>19. 9. 16.(월) 오후 1:30~4:30</t>
+  </si>
+  <si>
+    <t>환불완료</t>
+  </si>
+  <si>
+    <t>2019-08-12 (월) 오후 15:28:53</t>
+  </si>
+  <si>
+    <t>2019-08-12 (월) 오후 15:29:05</t>
+  </si>
+  <si>
+    <t>2019-09-10 (화) 오후 18:55:05</t>
+  </si>
+  <si>
+    <t>19. 9. 16.(월) 오후 2:00~5:00</t>
+  </si>
+  <si>
+    <t>2019-09-10 (화) 오후 18:55:51</t>
+  </si>
+  <si>
+    <t>2019-09-10 (화) 오후 18:56:03</t>
+  </si>
+  <si>
     <t>김수정</t>
   </si>
   <si>
     <t>******2411</t>
   </si>
   <si>
-    <t>19. 8. 11.(일) 오후 4:30~5:30</t>
-  </si>
-  <si>
-    <t>세미나실 A</t>
-  </si>
-  <si>
-    <t>2019-08-10 (토) 오후 21:50:59</t>
-  </si>
-  <si>
-    <t>2019-08-10 (토) 오후 21:51:40</t>
+    <t>19. 9. 17.(화) 오후 4:30~7:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 (금) 오후 15:15:11</t>
+  </si>
+  <si>
+    <t>2019-08-16 (금) 오후 15:15:59</t>
+  </si>
+  <si>
+    <t>19. 9. 18.(수) 오후 8:30~10:00</t>
+  </si>
+  <si>
+    <t>입금대기취소</t>
+  </si>
+  <si>
+    <t>2019-08-31 (토) 오후 23:21:08</t>
+  </si>
+  <si>
+    <t>2019-08-31 (토) 오후 23:21:24</t>
+  </si>
+  <si>
+    <t>2019-09-03 (화) 오전 0:10:44</t>
+  </si>
+  <si>
+    <t>미입금취소</t>
+  </si>
+  <si>
+    <t>2019-09-03 (화) 오후 14:20:38</t>
+  </si>
+  <si>
+    <t>2019-09-03 (화) 오후 14:21:02</t>
+  </si>
+  <si>
+    <t>이경진</t>
+  </si>
+  <si>
+    <t>******0092</t>
+  </si>
+  <si>
+    <t>***@gmail.com</t>
+  </si>
+  <si>
+    <t>19. 9. 19.(목) 오후 2:00~5:00</t>
+  </si>
+  <si>
+    <t>2019-09-05 (목) 오후 16:51:14</t>
+  </si>
+  <si>
+    <t>2019-09-05 (목) 오후 16:51:34</t>
+  </si>
+  <si>
+    <t>19. 9. 20.(금) 오후 4:30~7:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 (금) 오후 15:16:53</t>
+  </si>
+  <si>
+    <t>2019-08-16 (금) 오후 15:32:32</t>
+  </si>
+  <si>
+    <t>19. 9. 21.(토) 오전 10:00~12:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 (목) 오전 7:52:16</t>
+  </si>
+  <si>
+    <t>2019-08-16 (금) 오후 15:51:02</t>
+  </si>
+  <si>
+    <t>19. 9. 21.(토) 오후 1:00~3:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 (목) 오전 7:53:28</t>
+  </si>
+  <si>
+    <t>2019-08-16 (금) 오후 15:52:13</t>
+  </si>
+  <si>
+    <t>19. 9. 21.(토) 오후 7:00~9:30</t>
+  </si>
+  <si>
+    <t>2019-08-31 (토) 오후 23:17:41</t>
+  </si>
+  <si>
+    <t>2019-08-31 (토) 오후 23:17:59</t>
+  </si>
+  <si>
+    <t>2019-09-03 (화) 오전 0:10:41</t>
+  </si>
+  <si>
+    <t>2019-09-03 (화) 오후 14:13:58</t>
+  </si>
+  <si>
+    <t>2019-09-03 (화) 오후 14:14:25</t>
+  </si>
+  <si>
+    <t>김한라</t>
+  </si>
+  <si>
+    <t>******7652</t>
+  </si>
+  <si>
+    <t>19. 9. 23.(월) 오전 9:00~12:00</t>
+  </si>
+  <si>
+    <t>2019-08-25 (일) 오후 23:56:46</t>
+  </si>
+  <si>
+    <t>2019-08-25 (일) 오후 23:57:29</t>
+  </si>
+  <si>
+    <t>19. 9. 23.(월) 오후 1:30~4:30</t>
+  </si>
+  <si>
+    <t>2019-08-25 (일) 오후 23:57:56</t>
+  </si>
+  <si>
+    <t>2019-08-25 (일) 오후 23:58:48</t>
+  </si>
+  <si>
+    <t>19. 9. 24.(화) 오후 4:30~7:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 (금) 오후 15:33:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 (금) 오후 15:33:32</t>
+  </si>
+  <si>
+    <t>19. 9. 25.(수) 오후 8:30~10:00</t>
+  </si>
+  <si>
+    <t>2019-08-31 (토) 오후 23:21:57</t>
+  </si>
+  <si>
+    <t>2019-08-31 (토) 오후 23:22:13</t>
+  </si>
+  <si>
+    <t>2019-09-03 (화) 오전 0:10:45</t>
+  </si>
+  <si>
+    <t>2019-09-03 (화) 오후 14:18:59</t>
+  </si>
+  <si>
+    <t>2019-09-03 (화) 오후 14:19:25</t>
+  </si>
+  <si>
+    <t>2019-09-11 (수) 오후 16:05:39</t>
+  </si>
+  <si>
+    <t>19. 9. 27.(금) 오후 4:30~7:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 (금) 오후 15:34:05</t>
+  </si>
+  <si>
+    <t>2019-08-16 (금) 오후 15:34:43</t>
+  </si>
+  <si>
+    <t>2019-08-26 (월) 오후 22:29:12</t>
+  </si>
+  <si>
+    <t>변경</t>
+  </si>
+  <si>
+    <t>2019-08-27 (화) 오전 10:35:24</t>
+  </si>
+  <si>
+    <t>2019-08-27 (화) 오전 10:36:09</t>
+  </si>
+  <si>
+    <t>19. 9. 27.(금) 오후 8:00~9:30</t>
+  </si>
+  <si>
+    <t>2019-08-31 (토) 오후 23:19:43</t>
+  </si>
+  <si>
+    <t>2019-08-31 (토) 오후 23:19:59</t>
+  </si>
+  <si>
+    <t>2019-09-03 (화) 오전 0:10:43</t>
+  </si>
+  <si>
+    <t>2019-09-03 (화) 오후 14:15:11</t>
+  </si>
+  <si>
+    <t>2019-09-03 (화) 오후 14:15:53</t>
+  </si>
+  <si>
+    <t>19. 9. 28.(토) 오전 10:00~12:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 (목) 오전 7:54:44</t>
+  </si>
+  <si>
+    <t>2019-08-16 (금) 오후 15:53:29</t>
+  </si>
+  <si>
+    <t>19. 9. 28.(토) 오후 1:00~3:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 (목) 오전 7:55:58</t>
+  </si>
+  <si>
+    <t>2019-08-16 (금) 오후 15:55:10</t>
+  </si>
+  <si>
+    <t>19. 9. 28.(토) 오후 7:00~9:30</t>
+  </si>
+  <si>
+    <t>2019-08-31 (토) 오후 23:18:37</t>
+  </si>
+  <si>
+    <t>2019-08-31 (토) 오후 23:18:52</t>
+  </si>
+  <si>
+    <t>2019-09-03 (화) 오후 14:16:30</t>
+  </si>
+  <si>
+    <t>2019-09-03 (화) 오후 14:16:57</t>
+  </si>
+  <si>
+    <t>강규리</t>
+  </si>
+  <si>
+    <t>******0083</t>
+  </si>
+  <si>
+    <t>19. 9. 30.(월) 오전 9:00~12:00</t>
+  </si>
+  <si>
+    <t>2019-08-28 (수) 오후 19:39:05</t>
+  </si>
+  <si>
+    <t>2019-08-28 (수) 오후 19:40:54</t>
+  </si>
+  <si>
+    <t>19. 9. 30.(월) 오후 1:30~5:00</t>
+  </si>
+  <si>
+    <t>2019-08-28 (수) 오후 19:42:32</t>
+  </si>
+  <si>
+    <t>2019-08-28 (수) 오후 19:43:28</t>
+  </si>
+  <si>
+    <t>19. 10. 1.(화) 오후 4:30~7:00</t>
+  </si>
+  <si>
+    <t>2019-08-27 (화) 오전 10:36:47</t>
+  </si>
+  <si>
+    <t>2019-08-27 (화) 오전 10:37:22</t>
+  </si>
+  <si>
+    <t>19. 10. 4.(금) 오후 4:30~7:00</t>
+  </si>
+  <si>
+    <t>2019-08-27 (화) 오전 10:37:56</t>
+  </si>
+  <si>
+    <t>2019-08-27 (화) 오전 10:38:33</t>
   </si>
 </sst>
 </file>
@@ -183,7 +612,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,9 +621,6 @@
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -210,13 +636,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -518,7 +944,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,7 +1062,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1">
-        <v>54393873</v>
+        <v>58188589</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -645,10 +1071,10 @@
         <v>27</v>
       </c>
       <c r="D2" s="1">
-        <v>2.0190809487539E+15</v>
+        <v>2.0190911370232E+15</v>
       </c>
       <c r="E2" s="1">
-        <v>2.0190809912209E+15</v>
+        <v>2.0190911250883E+15</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>28</v>
@@ -678,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="1">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>36</v>
@@ -703,7 +1129,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1">
-        <v>54525987</v>
+        <v>58207101</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>40</v>
@@ -712,10 +1138,10 @@
         <v>27</v>
       </c>
       <c r="D3" s="1">
-        <v>2.0190810557032E+15</v>
+        <v>2.019091137918E+15</v>
       </c>
       <c r="E3" s="1">
-        <v>2.0190810120683E+15</v>
+        <v>2.01909112649E+15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>28</v>
@@ -745,10 +1171,10 @@
         <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>37</v>
@@ -760,13 +1186,2526 @@
         <v>0</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1">
+        <v>58231780</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.0190911391727E+15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.019091128394E+15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>15000</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1">
+        <v>58231944</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.0190911391834E+15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.0190911284101E+15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>27000</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1">
+        <v>58232042</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.0190911391896E+15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.0190911284193E+15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>15000</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="1">
+        <v>55103224</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.0190815140555E+15</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.0190815902296E+15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>16000</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="1">
+        <v>55103275</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.0190815140592E+15</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.0190815902353E+15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>16000</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="1">
+        <v>57913394</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.0190908136302E+15</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.0190908776948E+15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>16000</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1">
+        <v>57927378</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.0190908159183E+15</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.0190908813891E+15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4000</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="1">
+        <v>58218689</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.0190911385438E+15</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.0190911274462E+15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4000</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="1">
+        <v>54734044</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.019081273332E+15</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.019081240701E+15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>12000</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="1">
+        <v>54736431</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.0190812735462E+15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.019081241056E+15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>12000</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R13" s="1">
+        <v>12000</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="1">
+        <v>58112985</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.0190910322236E+15</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.019091017641E+15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>12000</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="1">
+        <v>55317801</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.0190816282669E+15</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.0190816231349E+15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="1">
+        <v>57132831</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.0190831113597E+15</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.019083116923E+15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>9000</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="1">
+        <v>57381810</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.0190903447986E+15</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.0190903724144E+15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>9000</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="1">
+        <v>57584450</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.0190905740093E+15</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.0190905304396E+15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>18000</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="1">
+        <v>55318108</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.0190816282872E+15</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.0190816231673E+15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1">
+        <v>55103358</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.0190815140651E+15</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.0190815902445E+15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>16000</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="1">
+        <v>55103418</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.019081514069E+15</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.0190815902503E+15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>16000</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="1">
+        <v>57132619</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.019083111334E+15</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.0190831168834E+15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="1">
+        <v>57381085</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.0190903446998E+15</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.0190903722476E+15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>20000</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="1">
+        <v>56466394</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.0190825346705E+15</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.0190825885592E+15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>12000</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="1">
+        <v>56466459</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.019082534683E+15</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.0190825885799E+15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>12000</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="1">
+        <v>55320860</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.0190816284614E+15</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.0190816234488E+15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="1">
+        <v>57132888</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.0190831113656E+15</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.0190831169327E+15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>9000</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="1">
+        <v>57381641</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.0190903447743E+15</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.0190903723733E+15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>9000</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R28" s="1">
+        <v>9000</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="1">
+        <v>55321065</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.0190816284742E+15</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.0190816234696E+15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="1">
+        <v>56594423</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.0190827507814E+15</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.0190827249789E+15</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="1">
+        <v>57132750</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.0190831113489E+15</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.0190831169066E+15</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1">
+        <v>12000</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="1">
+        <v>57381225</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2.0190903447222E+15</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2.0190903722845E+15</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
+        <v>12000</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="1">
+        <v>55103482</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2.0190815140737E+15</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.0190815902572E+15</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>16000</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="1">
+        <v>55103542</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2.0190815140775E+15</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.019081590263E+15</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
+        <v>16000</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="1">
+        <v>57132681</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.0190831113411E+15</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.019083116895E+15</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1">
+        <v>20000</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="1">
+        <v>57381367</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2.0190903447373E+15</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.0190903723108E+15</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>20000</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="1">
+        <v>56769513</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2.0190828700818E+15</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.0190828566028E+15</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1">
+        <v>12000</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="1">
+        <v>56769822</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2.0190828701099E+15</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2.0190828566476E+15</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1">
+        <v>14000</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="1">
+        <v>56594610</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2.0190827508E+15</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2.0190827250087E+15</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+      <c r="O39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="1">
+        <v>56594785</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.0190827508149E+15</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2.0190827250347E+15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/storage/temp.xlsx
+++ b/storage/temp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t>예약번호</t>
   </si>
@@ -107,10 +107,10 @@
     <t>일반</t>
   </si>
   <si>
-    <t>안영준</t>
-  </si>
-  <si>
-    <t>******2349</t>
+    <t>허우현</t>
+  </si>
+  <si>
+    <t>******2353</t>
   </si>
   <si>
     <t>***@naver.com</t>
@@ -119,7 +119,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>19. 9. 12.(목) 오전 6:00~9:00</t>
+    <t>19. 11. 5.(화) 오후 7:00~8:00</t>
   </si>
   <si>
     <t>세미나실 3인실</t>
@@ -131,115 +131,286 @@
     <t>결제완료</t>
   </si>
   <si>
-    <t>2019-09-11 (수) 오후 14:16:05</t>
-  </si>
-  <si>
-    <t>2019-09-11 (수) 오후 14:16:24</t>
+    <t>2019-11-02 (토) 오후 14:21:03</t>
+  </si>
+  <si>
+    <t>2019-11-02 (토) 오후 14:21:27</t>
+  </si>
+  <si>
+    <t>네이버 - 기타</t>
+  </si>
+  <si>
+    <t>김수정</t>
+  </si>
+  <si>
+    <t>******2411</t>
+  </si>
+  <si>
+    <t>19. 11. 5.(화) 오후 4:30~7:00</t>
+  </si>
+  <si>
+    <t>2019-11-03 (일) 오후 22:56:02</t>
+  </si>
+  <si>
+    <t>2019-11-03 (일) 오후 22:57:16</t>
   </si>
   <si>
     <t>네이버 플레이스 - 상세페이지</t>
   </si>
   <si>
+    <t>이수연</t>
+  </si>
+  <si>
+    <t>******7288</t>
+  </si>
+  <si>
+    <t>19. 11. 5.(화) 오전 9:30~11:30</t>
+  </si>
+  <si>
+    <t>세미나실 6인실</t>
+  </si>
+  <si>
+    <t>2019-11-04 (월) 오후 13:06:36</t>
+  </si>
+  <si>
+    <t>2019-11-04 (월) 오후 13:07:31</t>
+  </si>
+  <si>
+    <t>네이버 모두</t>
+  </si>
+  <si>
+    <t>취소</t>
+  </si>
+  <si>
+    <t>이은희</t>
+  </si>
+  <si>
+    <t>******0636</t>
+  </si>
+  <si>
+    <t>19. 11. 6.(수) 오후 5:00~7:00</t>
+  </si>
+  <si>
+    <t>환불완료</t>
+  </si>
+  <si>
+    <t>2019-10-28 (월) 오후 14:08:30</t>
+  </si>
+  <si>
+    <t>2019-10-28 (월) 오후 14:08:58</t>
+  </si>
+  <si>
+    <t>2019-11-01 (금) 오전 9:29:26</t>
+  </si>
+  <si>
+    <t>민소정</t>
+  </si>
+  <si>
+    <t>******2709</t>
+  </si>
+  <si>
+    <t>19. 11. 6.(수) 오후 8:30~10:00</t>
+  </si>
+  <si>
+    <t>실시간계좌이체</t>
+  </si>
+  <si>
+    <t>2019-11-01 (금) 오후 13:39:44</t>
+  </si>
+  <si>
+    <t>2019-11-01 (금) 오후 13:40:10</t>
+  </si>
+  <si>
+    <t>성지원</t>
+  </si>
+  <si>
+    <t>******9698</t>
+  </si>
+  <si>
+    <t>19. 11. 6.(수) 오후 5:00~9:00</t>
+  </si>
+  <si>
+    <t>2019-11-05 (화) 오후 22:24:48</t>
+  </si>
+  <si>
+    <t>2019-11-05 (화) 오후 22:25:13</t>
+  </si>
+  <si>
+    <t>조규현</t>
+  </si>
+  <si>
+    <t>******8841</t>
+  </si>
+  <si>
+    <t>***@hanmail.net</t>
+  </si>
+  <si>
+    <t>19. 11. 6.(수) 오후 12:00~6:00</t>
+  </si>
+  <si>
+    <t>2019-11-05 (화) 오후 23:26:10</t>
+  </si>
+  <si>
+    <t>2019-11-05 (화) 오후 23:26:49</t>
+  </si>
+  <si>
+    <t>이환희</t>
+  </si>
+  <si>
+    <t>******5132</t>
+  </si>
+  <si>
+    <t>19. 11. 6.(수) 오후 6:30~8:30</t>
+  </si>
+  <si>
+    <t>2019-11-05 (화) 오후 23:32:59</t>
+  </si>
+  <si>
+    <t>2019-11-05 (화) 오후 23:33:19</t>
+  </si>
+  <si>
+    <t>이경진</t>
+  </si>
+  <si>
+    <t>******0092</t>
+  </si>
+  <si>
+    <t>***@gmail.com</t>
+  </si>
+  <si>
+    <t>19. 11. 7.(목) 오후 2:00~4:30</t>
+  </si>
+  <si>
+    <t>2019-10-31 (목) 오후 16:58:35</t>
+  </si>
+  <si>
+    <t>2019-10-31 (목) 오후 16:58:54</t>
+  </si>
+  <si>
+    <t>19. 11. 7.(목) 오전 9:30~11:30</t>
+  </si>
+  <si>
+    <t>2019-11-04 (월) 오후 13:07:54</t>
+  </si>
+  <si>
+    <t>2019-11-04 (월) 오후 13:08:37</t>
+  </si>
+  <si>
+    <t>손민아</t>
+  </si>
+  <si>
+    <t>******6171</t>
+  </si>
+  <si>
+    <t>19. 11. 7.(목) 오후 4:30~6:00</t>
+  </si>
+  <si>
+    <t>2019-11-05 (화) 오후 22:30:32</t>
+  </si>
+  <si>
+    <t>2019-11-05 (화) 오후 22:31:01</t>
+  </si>
+  <si>
+    <t>19. 11. 8.(금) 오후 4:30~7:00</t>
+  </si>
+  <si>
+    <t>2019-11-05 (화) 오후 19:43:06</t>
+  </si>
+  <si>
+    <t>2019-11-05 (화) 오후 19:43:54</t>
+  </si>
+  <si>
+    <t>이기암</t>
+  </si>
+  <si>
+    <t>******8626</t>
+  </si>
+  <si>
+    <t>19. 11. 9.(토) 오전 10:00~12:00</t>
+  </si>
+  <si>
+    <t>세미나실 8인실</t>
+  </si>
+  <si>
+    <t>무통장입금</t>
+  </si>
+  <si>
+    <t>입금대기취소</t>
+  </si>
+  <si>
+    <t>2019-10-07 (월) 오전 10:10:14</t>
+  </si>
+  <si>
+    <t>2019-10-07 (월) 오전 10:10:40</t>
+  </si>
+  <si>
+    <t>2019-10-09 (수) 오전 0:05:39</t>
+  </si>
+  <si>
+    <t>미입금취소</t>
+  </si>
+  <si>
+    <t>19. 11. 9.(토) 오후 1:00~3:00</t>
+  </si>
+  <si>
+    <t>2019-10-07 (월) 오전 10:12:11</t>
+  </si>
+  <si>
+    <t>2019-10-07 (월) 오전 10:12:32</t>
+  </si>
+  <si>
+    <t>2019-10-09 (수) 오전 0:05:40</t>
+  </si>
+  <si>
+    <t>2019-10-11 (금) 오전 7:32:17</t>
+  </si>
+  <si>
+    <t>2019-10-12 (토) 오후 19:21:56</t>
+  </si>
+  <si>
+    <t>2019-10-11 (금) 오전 7:33:41</t>
+  </si>
+  <si>
+    <t>2019-10-12 (토) 오후 19:23:21</t>
+  </si>
+  <si>
     <t>장지욱</t>
   </si>
   <si>
     <t>******7650</t>
   </si>
   <si>
-    <t>19. 9. 12.(목) 오전 11:30~1:30</t>
-  </si>
-  <si>
-    <t>세미나실 6인실</t>
-  </si>
-  <si>
-    <t>무통장입금</t>
-  </si>
-  <si>
-    <t>2019-09-11 (수) 오후 16:53:23</t>
-  </si>
-  <si>
-    <t>2019-09-11 (수) 오후 18:23:46</t>
-  </si>
-  <si>
-    <t>네이버 모두</t>
-  </si>
-  <si>
-    <t>김유진</t>
-  </si>
-  <si>
-    <t>******4666</t>
-  </si>
-  <si>
-    <t>19. 9. 12.(목) 오전 9:00~11:30</t>
-  </si>
-  <si>
-    <t>2019-09-11 (수) 오후 21:33:10</t>
-  </si>
-  <si>
-    <t>2019-09-11 (수) 오후 21:33:54</t>
-  </si>
-  <si>
-    <t>19. 9. 12.(목) 오후 1:30~6:00</t>
-  </si>
-  <si>
-    <t>2019-09-11 (수) 오후 21:35:28</t>
-  </si>
-  <si>
-    <t>2019-09-11 (수) 오후 21:35:55</t>
-  </si>
-  <si>
-    <t>19. 9. 12.(목) 오후 7:30~10:00</t>
-  </si>
-  <si>
-    <t>2019-09-11 (수) 오후 21:36:50</t>
-  </si>
-  <si>
-    <t>2019-09-11 (수) 오후 21:37:15</t>
-  </si>
-  <si>
-    <t>이기암</t>
-  </si>
-  <si>
-    <t>******8626</t>
-  </si>
-  <si>
-    <t>19. 9. 14.(토) 오전 10:00~12:00</t>
-  </si>
-  <si>
-    <t>세미나실 8인실</t>
-  </si>
-  <si>
-    <t>2019-08-15 (목) 오전 7:49:18</t>
-  </si>
-  <si>
-    <t>2019-08-16 (금) 오후 15:48:28</t>
-  </si>
-  <si>
-    <t>19. 9. 14.(토) 오후 1:00~3:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 (목) 오전 7:50:35</t>
-  </si>
-  <si>
-    <t>2019-08-16 (금) 오후 15:49:48</t>
-  </si>
-  <si>
-    <t>네이버 - 기타</t>
-  </si>
-  <si>
-    <t>한슬기</t>
-  </si>
-  <si>
-    <t>******2092</t>
-  </si>
-  <si>
-    <t>19. 9. 15.(일) 오전 9:00~1:00</t>
-  </si>
-  <si>
-    <t>2019-09-08 (일) 오후 20:22:53</t>
-  </si>
-  <si>
-    <t>2019-09-08 (일) 오후 20:23:17</t>
+    <t>19. 11. 9.(토) 오후 7:00~9:30</t>
+  </si>
+  <si>
+    <t>2019-10-22 (화) 오전 10:26:54</t>
+  </si>
+  <si>
+    <t>2019-10-22 (화) 오전 10:27:18</t>
+  </si>
+  <si>
+    <t>황재원</t>
+  </si>
+  <si>
+    <t>******9133</t>
+  </si>
+  <si>
+    <t>19. 11. 9.(토) 오후 2:30~4:30</t>
+  </si>
+  <si>
+    <t>2019-11-05 (화) 오후 19:32:16</t>
+  </si>
+  <si>
+    <t>2019-11-05 (화) 오후 19:33:07</t>
+  </si>
+  <si>
+    <t>19. 11. 10.(일) 오전 11:30~1:30</t>
+  </si>
+  <si>
+    <t>2019-10-28 (월) 오후 13:58:37</t>
+  </si>
+  <si>
+    <t>2019-10-28 (월) 오후 13:59:01</t>
   </si>
   <si>
     <t>안주희</t>
@@ -248,343 +419,205 @@
     <t>******3416</t>
   </si>
   <si>
-    <t>19. 9. 15.(일) 오후 4:00~5:00</t>
-  </si>
-  <si>
-    <t>2019-09-08 (일) 오후 23:35:56</t>
-  </si>
-  <si>
-    <t>2019-09-09 (월) 오전 11:07:25</t>
-  </si>
-  <si>
-    <t>양연욱</t>
-  </si>
-  <si>
-    <t>******4030</t>
-  </si>
-  <si>
-    <t>19. 9. 15.(일) 오후 3:00~4:00</t>
-  </si>
-  <si>
-    <t>2019-09-11 (수) 오후 18:48:54</t>
-  </si>
-  <si>
-    <t>2019-09-11 (수) 오후 19:11:32</t>
-  </si>
-  <si>
-    <t>최미영</t>
-  </si>
-  <si>
-    <t>******3637</t>
-  </si>
-  <si>
-    <t>19. 9. 16.(월) 오전 9:00~12:00</t>
-  </si>
-  <si>
-    <t>포인트결제</t>
-  </si>
-  <si>
-    <t>2019-08-12 (월) 오후 15:13:39</t>
-  </si>
-  <si>
-    <t>2019-08-12 (월) 오후 15:13:59</t>
-  </si>
-  <si>
-    <t>취소</t>
-  </si>
-  <si>
-    <t>19. 9. 16.(월) 오후 1:30~4:30</t>
-  </si>
-  <si>
-    <t>환불완료</t>
-  </si>
-  <si>
-    <t>2019-08-12 (월) 오후 15:28:53</t>
-  </si>
-  <si>
-    <t>2019-08-12 (월) 오후 15:29:05</t>
-  </si>
-  <si>
-    <t>2019-09-10 (화) 오후 18:55:05</t>
-  </si>
-  <si>
-    <t>19. 9. 16.(월) 오후 2:00~5:00</t>
-  </si>
-  <si>
-    <t>2019-09-10 (화) 오후 18:55:51</t>
-  </si>
-  <si>
-    <t>2019-09-10 (화) 오후 18:56:03</t>
-  </si>
-  <si>
-    <t>김수정</t>
-  </si>
-  <si>
-    <t>******2411</t>
-  </si>
-  <si>
-    <t>19. 9. 17.(화) 오후 4:30~7:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 (금) 오후 15:15:11</t>
-  </si>
-  <si>
-    <t>2019-08-16 (금) 오후 15:15:59</t>
-  </si>
-  <si>
-    <t>19. 9. 18.(수) 오후 8:30~10:00</t>
-  </si>
-  <si>
-    <t>입금대기취소</t>
-  </si>
-  <si>
-    <t>2019-08-31 (토) 오후 23:21:08</t>
-  </si>
-  <si>
-    <t>2019-08-31 (토) 오후 23:21:24</t>
-  </si>
-  <si>
-    <t>2019-09-03 (화) 오전 0:10:44</t>
-  </si>
-  <si>
-    <t>미입금취소</t>
-  </si>
-  <si>
-    <t>2019-09-03 (화) 오후 14:20:38</t>
-  </si>
-  <si>
-    <t>2019-09-03 (화) 오후 14:21:02</t>
-  </si>
-  <si>
-    <t>이경진</t>
-  </si>
-  <si>
-    <t>******0092</t>
-  </si>
-  <si>
-    <t>***@gmail.com</t>
-  </si>
-  <si>
-    <t>19. 9. 19.(목) 오후 2:00~5:00</t>
-  </si>
-  <si>
-    <t>2019-09-05 (목) 오후 16:51:14</t>
-  </si>
-  <si>
-    <t>2019-09-05 (목) 오후 16:51:34</t>
-  </si>
-  <si>
-    <t>19. 9. 20.(금) 오후 4:30~7:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 (금) 오후 15:16:53</t>
-  </si>
-  <si>
-    <t>2019-08-16 (금) 오후 15:32:32</t>
-  </si>
-  <si>
-    <t>19. 9. 21.(토) 오전 10:00~12:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 (목) 오전 7:52:16</t>
-  </si>
-  <si>
-    <t>2019-08-16 (금) 오후 15:51:02</t>
-  </si>
-  <si>
-    <t>19. 9. 21.(토) 오후 1:00~3:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 (목) 오전 7:53:28</t>
-  </si>
-  <si>
-    <t>2019-08-16 (금) 오후 15:52:13</t>
-  </si>
-  <si>
-    <t>19. 9. 21.(토) 오후 7:00~9:30</t>
-  </si>
-  <si>
-    <t>2019-08-31 (토) 오후 23:17:41</t>
-  </si>
-  <si>
-    <t>2019-08-31 (토) 오후 23:17:59</t>
-  </si>
-  <si>
-    <t>2019-09-03 (화) 오전 0:10:41</t>
-  </si>
-  <si>
-    <t>2019-09-03 (화) 오후 14:13:58</t>
-  </si>
-  <si>
-    <t>2019-09-03 (화) 오후 14:14:25</t>
-  </si>
-  <si>
-    <t>김한라</t>
-  </si>
-  <si>
-    <t>******7652</t>
-  </si>
-  <si>
-    <t>19. 9. 23.(월) 오전 9:00~12:00</t>
-  </si>
-  <si>
-    <t>2019-08-25 (일) 오후 23:56:46</t>
-  </si>
-  <si>
-    <t>2019-08-25 (일) 오후 23:57:29</t>
-  </si>
-  <si>
-    <t>19. 9. 23.(월) 오후 1:30~4:30</t>
-  </si>
-  <si>
-    <t>2019-08-25 (일) 오후 23:57:56</t>
-  </si>
-  <si>
-    <t>2019-08-25 (일) 오후 23:58:48</t>
-  </si>
-  <si>
-    <t>19. 9. 24.(화) 오후 4:30~7:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 (금) 오후 15:33:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 (금) 오후 15:33:32</t>
-  </si>
-  <si>
-    <t>19. 9. 25.(수) 오후 8:30~10:00</t>
-  </si>
-  <si>
-    <t>2019-08-31 (토) 오후 23:21:57</t>
-  </si>
-  <si>
-    <t>2019-08-31 (토) 오후 23:22:13</t>
-  </si>
-  <si>
-    <t>2019-09-03 (화) 오전 0:10:45</t>
-  </si>
-  <si>
-    <t>2019-09-03 (화) 오후 14:18:59</t>
-  </si>
-  <si>
-    <t>2019-09-03 (화) 오후 14:19:25</t>
-  </si>
-  <si>
-    <t>2019-09-11 (수) 오후 16:05:39</t>
-  </si>
-  <si>
-    <t>19. 9. 27.(금) 오후 4:30~7:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 (금) 오후 15:34:05</t>
-  </si>
-  <si>
-    <t>2019-08-16 (금) 오후 15:34:43</t>
-  </si>
-  <si>
-    <t>2019-08-26 (월) 오후 22:29:12</t>
-  </si>
-  <si>
-    <t>변경</t>
-  </si>
-  <si>
-    <t>2019-08-27 (화) 오전 10:35:24</t>
-  </si>
-  <si>
-    <t>2019-08-27 (화) 오전 10:36:09</t>
-  </si>
-  <si>
-    <t>19. 9. 27.(금) 오후 8:00~9:30</t>
-  </si>
-  <si>
-    <t>2019-08-31 (토) 오후 23:19:43</t>
-  </si>
-  <si>
-    <t>2019-08-31 (토) 오후 23:19:59</t>
-  </si>
-  <si>
-    <t>2019-09-03 (화) 오전 0:10:43</t>
-  </si>
-  <si>
-    <t>2019-09-03 (화) 오후 14:15:11</t>
-  </si>
-  <si>
-    <t>2019-09-03 (화) 오후 14:15:53</t>
-  </si>
-  <si>
-    <t>19. 9. 28.(토) 오전 10:00~12:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 (목) 오전 7:54:44</t>
-  </si>
-  <si>
-    <t>2019-08-16 (금) 오후 15:53:29</t>
-  </si>
-  <si>
-    <t>19. 9. 28.(토) 오후 1:00~3:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 (목) 오전 7:55:58</t>
-  </si>
-  <si>
-    <t>2019-08-16 (금) 오후 15:55:10</t>
-  </si>
-  <si>
-    <t>19. 9. 28.(토) 오후 7:00~9:30</t>
-  </si>
-  <si>
-    <t>2019-08-31 (토) 오후 23:18:37</t>
-  </si>
-  <si>
-    <t>2019-08-31 (토) 오후 23:18:52</t>
-  </si>
-  <si>
-    <t>2019-09-03 (화) 오후 14:16:30</t>
-  </si>
-  <si>
-    <t>2019-09-03 (화) 오후 14:16:57</t>
-  </si>
-  <si>
-    <t>강규리</t>
-  </si>
-  <si>
-    <t>******0083</t>
-  </si>
-  <si>
-    <t>19. 9. 30.(월) 오전 9:00~12:00</t>
-  </si>
-  <si>
-    <t>2019-08-28 (수) 오후 19:39:05</t>
-  </si>
-  <si>
-    <t>2019-08-28 (수) 오후 19:40:54</t>
-  </si>
-  <si>
-    <t>19. 9. 30.(월) 오후 1:30~5:00</t>
-  </si>
-  <si>
-    <t>2019-08-28 (수) 오후 19:42:32</t>
-  </si>
-  <si>
-    <t>2019-08-28 (수) 오후 19:43:28</t>
-  </si>
-  <si>
-    <t>19. 10. 1.(화) 오후 4:30~7:00</t>
-  </si>
-  <si>
-    <t>2019-08-27 (화) 오전 10:36:47</t>
-  </si>
-  <si>
-    <t>2019-08-27 (화) 오전 10:37:22</t>
-  </si>
-  <si>
-    <t>19. 10. 4.(금) 오후 4:30~7:00</t>
-  </si>
-  <si>
-    <t>2019-08-27 (화) 오전 10:37:56</t>
-  </si>
-  <si>
-    <t>2019-08-27 (화) 오전 10:38:33</t>
+    <t>19. 11. 10.(일) 오후 5:00~6:00</t>
+  </si>
+  <si>
+    <t>2019-11-03 (일) 오후 21:09:10</t>
+  </si>
+  <si>
+    <t>2019-11-04 (월) 오전 9:38:22</t>
+  </si>
+  <si>
+    <t>조단비</t>
+  </si>
+  <si>
+    <t>******4699</t>
+  </si>
+  <si>
+    <t>19. 11. 10.(일) 오전 11:00~12:30</t>
+  </si>
+  <si>
+    <t>2019-11-03 (일) 오후 23:16:12</t>
+  </si>
+  <si>
+    <t>2019-11-03 (일) 오후 23:19:40</t>
+  </si>
+  <si>
+    <t>2019-11-04 (월) 오후 14:58:27</t>
+  </si>
+  <si>
+    <t>19. 11. 10.(일) 오후 3:00~5:00</t>
+  </si>
+  <si>
+    <t>2019-11-04 (월) 오후 15:52:30</t>
+  </si>
+  <si>
+    <t>2019-11-04 (월) 오후 15:54:11</t>
+  </si>
+  <si>
+    <t>노정연</t>
+  </si>
+  <si>
+    <t>******2203</t>
+  </si>
+  <si>
+    <t>19. 11. 11.(월) 오후 7:00~9:00</t>
+  </si>
+  <si>
+    <t>2019-11-02 (토) 오후 15:16:06</t>
+  </si>
+  <si>
+    <t>2019-11-02 (토) 오후 15:17:04</t>
+  </si>
+  <si>
+    <t>19. 11. 16.(토) 오전 10:00~12:00</t>
+  </si>
+  <si>
+    <t>2019-10-07 (월) 오전 10:13:45</t>
+  </si>
+  <si>
+    <t>2019-10-07 (월) 오전 10:14:04</t>
+  </si>
+  <si>
+    <t>2019-10-09 (수) 오전 0:05:41</t>
+  </si>
+  <si>
+    <t>19. 11. 16.(토) 오후 1:00~3:00</t>
+  </si>
+  <si>
+    <t>2019-10-07 (월) 오전 10:15:13</t>
+  </si>
+  <si>
+    <t>2019-10-07 (월) 오전 10:15:35</t>
+  </si>
+  <si>
+    <t>2019-10-09 (수) 오전 0:05:42</t>
+  </si>
+  <si>
+    <t>2019-10-11 (금) 오전 7:35:10</t>
+  </si>
+  <si>
+    <t>2019-10-12 (토) 오후 19:24:35</t>
+  </si>
+  <si>
+    <t>2019-10-11 (금) 오전 7:36:49</t>
+  </si>
+  <si>
+    <t>2019-10-12 (토) 오후 19:25:52</t>
+  </si>
+  <si>
+    <t>19. 11. 16.(토) 오후 7:00~9:30</t>
+  </si>
+  <si>
+    <t>2019-10-22 (화) 오전 10:27:59</t>
+  </si>
+  <si>
+    <t>2019-10-22 (화) 오전 10:28:42</t>
+  </si>
+  <si>
+    <t>19. 11. 16.(토) 오전 11:00~1:00</t>
+  </si>
+  <si>
+    <t>2019-11-02 (토) 오후 15:27:22</t>
+  </si>
+  <si>
+    <t>2019-11-02 (토) 오후 15:28:19</t>
+  </si>
+  <si>
+    <t>19. 11. 17.(일) 오전 11:30~1:30</t>
+  </si>
+  <si>
+    <t>2019-10-28 (월) 오후 14:03:50</t>
+  </si>
+  <si>
+    <t>2019-10-28 (월) 오후 14:04:13</t>
+  </si>
+  <si>
+    <t>19. 11. 23.(토) 오전 10:00~12:00</t>
+  </si>
+  <si>
+    <t>2019-10-07 (월) 오전 10:17:40</t>
+  </si>
+  <si>
+    <t>2019-10-07 (월) 오전 10:17:58</t>
+  </si>
+  <si>
+    <t>2019-10-09 (수) 오전 0:05:43</t>
+  </si>
+  <si>
+    <t>19. 11. 23.(토) 오후 1:00~3:00</t>
+  </si>
+  <si>
+    <t>2019-10-07 (월) 오전 10:18:53</t>
+  </si>
+  <si>
+    <t>2019-10-07 (월) 오전 10:19:13</t>
+  </si>
+  <si>
+    <t>2019-10-11 (금) 오전 7:40:06</t>
+  </si>
+  <si>
+    <t>2019-10-12 (토) 오후 19:27:01</t>
+  </si>
+  <si>
+    <t>2019-10-11 (금) 오전 7:41:24</t>
+  </si>
+  <si>
+    <t>2019-10-12 (토) 오후 19:28:15</t>
+  </si>
+  <si>
+    <t>19. 11. 23.(토) 오후 7:00~9:30</t>
+  </si>
+  <si>
+    <t>2019-10-22 (화) 오전 10:29:22</t>
+  </si>
+  <si>
+    <t>2019-10-22 (화) 오전 10:29:46</t>
+  </si>
+  <si>
+    <t>19. 11. 30.(토) 오전 10:00~12:00</t>
+  </si>
+  <si>
+    <t>2019-10-07 (월) 오전 10:20:30</t>
+  </si>
+  <si>
+    <t>2019-10-07 (월) 오전 10:20:57</t>
+  </si>
+  <si>
+    <t>2019-10-09 (수) 오전 0:05:44</t>
+  </si>
+  <si>
+    <t>19. 11. 30.(토) 오후 1:00~3:00</t>
+  </si>
+  <si>
+    <t>2019-10-07 (월) 오전 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-10-07 (월) 오전 10:22:21</t>
+  </si>
+  <si>
+    <t>2019-10-09 (수) 오전 0:05:45</t>
+  </si>
+  <si>
+    <t>2019-10-11 (금) 오전 7:42:49</t>
+  </si>
+  <si>
+    <t>2019-10-12 (토) 오후 19:29:24</t>
+  </si>
+  <si>
+    <t>2019-10-11 (금) 오전 7:44:40</t>
+  </si>
+  <si>
+    <t>2019-10-12 (토) 오후 19:30:31</t>
+  </si>
+  <si>
+    <t>19. 11. 30.(토) 오후 7:00~9:30</t>
+  </si>
+  <si>
+    <t>2019-10-22 (화) 오전 10:30:21</t>
+  </si>
+  <si>
+    <t>2019-10-22 (화) 오전 10:30:43</t>
   </si>
 </sst>
 </file>
@@ -635,11 +668,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
@@ -944,7 +980,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,85 +1020,85 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1">
-        <v>58188589</v>
+        <v>63722147</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -1071,10 +1107,10 @@
         <v>27</v>
       </c>
       <c r="D2" s="1">
-        <v>2.0190911370232E+15</v>
+        <v>2.01911026139E+15</v>
       </c>
       <c r="E2" s="1">
-        <v>2.0190911250883E+15</v>
+        <v>2.0191102459236E+15</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>28</v>
@@ -1104,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="1">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>36</v>
@@ -1129,7 +1165,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1">
-        <v>58207101</v>
+        <v>63876751</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>40</v>
@@ -1138,10 +1174,10 @@
         <v>27</v>
       </c>
       <c r="D3" s="1">
-        <v>2.019091137918E+15</v>
+        <v>2.0191103751775E+15</v>
       </c>
       <c r="E3" s="1">
-        <v>2.01909112649E+15</v>
+        <v>2.0191103679177E+15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>28</v>
@@ -1165,16 +1201,16 @@
         <v>43</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>37</v>
@@ -1186,29 +1222,29 @@
         <v>0</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1">
-        <v>58231780</v>
+        <v>63918325</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="1">
-        <v>2.0190911391727E+15</v>
+        <v>2.0191104814194E+15</v>
       </c>
       <c r="E4" s="1">
-        <v>2.019091128394E+15</v>
+        <v>2.0191104784548E+15</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>28</v>
@@ -1217,10 +1253,10 @@
         <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>32</v>
@@ -1229,16 +1265,16 @@
         <v>33</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
       </c>
       <c r="O4" s="1">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>36</v>
@@ -1253,41 +1289,41 @@
         <v>0</v>
       </c>
       <c r="V4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="1">
-        <v>58231944</v>
+        <v>63175169</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="1">
-        <v>2.0190911391834E+15</v>
+        <v>2.0191028930435E+15</v>
       </c>
       <c r="E5" s="1">
-        <v>2.0190911284101E+15</v>
+        <v>2.0191028406919E+15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>32</v>
@@ -1296,53 +1332,55 @@
         <v>33</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
       </c>
       <c r="O5" s="1">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
+      <c r="Y5" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="1">
-        <v>58232042</v>
+        <v>63584887</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1">
-        <v>2.0190911391896E+15</v>
+        <v>2.0191101521766E+15</v>
       </c>
       <c r="E6" s="1">
-        <v>2.0190911284193E+15</v>
+        <v>2.0191101312219E+15</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>28</v>
@@ -1351,10 +1389,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>32</v>
@@ -1363,19 +1401,19 @@
         <v>33</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>37</v>
@@ -1387,29 +1425,29 @@
         <v>0</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="1">
-        <v>55103224</v>
+        <v>64082243</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="1">
-        <v>2.0190815140555E+15</v>
+        <v>2.0191105121163E+15</v>
       </c>
       <c r="E7" s="1">
-        <v>2.0190815902296E+15</v>
+        <v>2.0191105223268E+15</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>28</v>
@@ -1418,10 +1456,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>32</v>
@@ -1430,19 +1468,19 @@
         <v>33</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
       </c>
       <c r="O7" s="1">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>37</v>
@@ -1454,29 +1492,29 @@
         <v>0</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="1">
-        <v>55103275</v>
+        <v>64086880</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>2.0190815140592E+15</v>
+        <v>2.0191105129738E+15</v>
       </c>
       <c r="E8" s="1">
-        <v>2.0190815902353E+15</v>
+        <v>2.0191105237155E+15</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>28</v>
@@ -1485,31 +1523,31 @@
         <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>37</v>
@@ -1521,29 +1559,29 @@
         <v>0</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="1">
-        <v>57913394</v>
+        <v>64087354</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="1">
-        <v>2.0190908136302E+15</v>
+        <v>2.0191105130566E+15</v>
       </c>
       <c r="E9" s="1">
-        <v>2.0190908776948E+15</v>
+        <v>2.0191105238503E+15</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>28</v>
@@ -1552,10 +1590,10 @@
         <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>32</v>
@@ -1564,7 +1602,7 @@
         <v>33</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>35</v>
@@ -1573,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="1">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>36</v>
@@ -1588,29 +1626,29 @@
         <v>0</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="1">
-        <v>57927378</v>
+        <v>63490860</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>2.0190908159183E+15</v>
+        <v>2.0191031424564E+15</v>
       </c>
       <c r="E10" s="1">
-        <v>2.0190908813891E+15</v>
+        <v>2.0191031151818E+15</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>28</v>
@@ -1619,19 +1657,19 @@
         <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>35</v>
@@ -1640,10 +1678,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>37</v>
@@ -1655,29 +1693,29 @@
         <v>0</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="1">
-        <v>58218689</v>
+        <v>63918500</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0190911385438E+15</v>
+        <v>2.0191104814352E+15</v>
       </c>
       <c r="E11" s="1">
-        <v>2.0190911274462E+15</v>
+        <v>2.0191104784815E+15</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>28</v>
@@ -1686,10 +1724,10 @@
         <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>32</v>
@@ -1698,16 +1736,16 @@
         <v>33</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
       </c>
       <c r="O11" s="1">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>36</v>
@@ -1722,29 +1760,29 @@
         <v>0</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="1">
-        <v>54734044</v>
+        <v>64082744</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="1">
-        <v>2.019081273332E+15</v>
+        <v>2.0191105121988E+15</v>
       </c>
       <c r="E12" s="1">
-        <v>2.019081240701E+15</v>
+        <v>2.0191105224572E+15</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>28</v>
@@ -1753,10 +1791,10 @@
         <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>32</v>
@@ -1765,7 +1803,7 @@
         <v>33</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>35</v>
@@ -1774,10 +1812,10 @@
         <v>1</v>
       </c>
       <c r="O12" s="1">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>37</v>
@@ -1789,17 +1827,17 @@
         <v>0</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="1">
-        <v>54736431</v>
+        <v>64068781</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>40</v>
@@ -1808,22 +1846,22 @@
         <v>27</v>
       </c>
       <c r="D13" s="1">
-        <v>2.0190812735462E+15</v>
+        <v>2.0191105101002E+15</v>
       </c>
       <c r="E13" s="1">
-        <v>2.019081241056E+15</v>
+        <v>2.0191105191449E+15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>32</v>
@@ -1832,7 +1870,7 @@
         <v>33</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>35</v>
@@ -1841,58 +1879,56 @@
         <v>1</v>
       </c>
       <c r="O13" s="1">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="R13" s="1">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="1">
-        <v>58112985</v>
+        <v>60937651</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="1">
-        <v>2.0190910322236E+15</v>
+        <v>2.0191007395363E+15</v>
       </c>
       <c r="E14" s="1">
-        <v>2.019091017641E+15</v>
+        <v>2.019100718401E+15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>32</v>
@@ -1901,22 +1937,22 @@
         <v>33</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
       </c>
       <c r="O14" s="1">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -1925,41 +1961,46 @@
         <v>0</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="1">
-        <v>55317801</v>
+        <v>60937815</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="1">
-        <v>2.0190816282669E+15</v>
+        <v>2.0191007395605E+15</v>
       </c>
       <c r="E15" s="1">
-        <v>2.0190816231349E+15</v>
+        <v>2.019100718443E+15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>32</v>
@@ -1968,22 +2009,22 @@
         <v>33</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
       </c>
       <c r="O15" s="1">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -1992,41 +2033,46 @@
         <v>0</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="1">
-        <v>57132831</v>
+        <v>61372960</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="1">
-        <v>2.0190831113597E+15</v>
+        <v>2.019101185686E+15</v>
       </c>
       <c r="E16" s="1">
-        <v>2.019083116923E+15</v>
+        <v>2.01910119407E+15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>32</v>
@@ -2035,22 +2081,22 @@
         <v>33</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>16000</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1">
-        <v>9000</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="Q16" s="1" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -2059,34 +2105,29 @@
         <v>0</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="1">
-        <v>57381810</v>
+        <v>61373007</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="1">
-        <v>2.0190903447986E+15</v>
+        <v>2.0191011856913E+15</v>
       </c>
       <c r="E17" s="1">
-        <v>2.0190903724144E+15</v>
+        <v>2.019101194078E+15</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>28</v>
@@ -2095,10 +2136,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>32</v>
@@ -2107,19 +2148,19 @@
         <v>33</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>16000</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1">
-        <v>9000</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>37</v>
@@ -2131,17 +2172,17 @@
         <v>0</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="1">
-        <v>57584450</v>
+        <v>62519127</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
@@ -2150,10 +2191,10 @@
         <v>27</v>
       </c>
       <c r="D18" s="1">
-        <v>2.0190905740093E+15</v>
+        <v>2.0191022269048E+15</v>
       </c>
       <c r="E18" s="1">
-        <v>2.0190905304396E+15</v>
+        <v>2.0191022226929E+15</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>28</v>
@@ -2162,28 +2203,28 @@
         <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="N18" s="1">
         <v>1</v>
       </c>
       <c r="O18" s="1">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>36</v>
@@ -2198,29 +2239,29 @@
         <v>0</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="1">
-        <v>55318108</v>
+        <v>64067874</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="1">
-        <v>2.0190816282872E+15</v>
+        <v>2.0191105999906E+15</v>
       </c>
       <c r="E19" s="1">
-        <v>2.0190816231673E+15</v>
+        <v>2.0191105189748E+15</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>28</v>
@@ -2229,10 +2270,10 @@
         <v>29</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>32</v>
@@ -2241,7 +2282,7 @@
         <v>33</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>35</v>
@@ -2250,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="1">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>36</v>
@@ -2265,29 +2306,29 @@
         <v>0</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="1">
-        <v>55103358</v>
+        <v>63173853</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
-        <v>2.0190815140651E+15</v>
+        <v>2.0191028928971E+15</v>
       </c>
       <c r="E20" s="1">
-        <v>2.0190815902445E+15</v>
+        <v>2.0191028404434E+15</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>28</v>
@@ -2296,10 +2337,10 @@
         <v>29</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>32</v>
@@ -2308,19 +2349,19 @@
         <v>33</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="N20" s="1">
         <v>1</v>
       </c>
       <c r="O20" s="1">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>37</v>
@@ -2332,17 +2373,17 @@
         <v>0</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="1">
-        <v>55103418</v>
+        <v>63869212</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>40</v>
@@ -2351,10 +2392,10 @@
         <v>27</v>
       </c>
       <c r="D21" s="1">
-        <v>2.019081514069E+15</v>
+        <v>2.0191103736065E+15</v>
       </c>
       <c r="E21" s="1">
-        <v>2.0190815902503E+15</v>
+        <v>2.0191103653352E+15</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
@@ -2363,10 +2404,10 @@
         <v>29</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>32</v>
@@ -2375,19 +2416,19 @@
         <v>33</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="N21" s="1">
         <v>1</v>
       </c>
       <c r="O21" s="1">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>37</v>
@@ -2399,41 +2440,41 @@
         <v>0</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1">
-        <v>57132619</v>
+        <v>63878012</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="1">
-        <v>2.019083111334E+15</v>
+        <v>2.0191103754562E+15</v>
       </c>
       <c r="E22" s="1">
-        <v>2.0190831168834E+15</v>
+        <v>2.0191103683919E+15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>32</v>
@@ -2442,58 +2483,55 @@
         <v>33</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="N22" s="1">
         <v>1</v>
       </c>
       <c r="O22" s="1">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="R22" s="1">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="1">
-        <v>57381085</v>
+        <v>63939481</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="1">
-        <v>2.0190903446998E+15</v>
+        <v>2.0191104838726E+15</v>
       </c>
       <c r="E23" s="1">
-        <v>2.0190903722476E+15</v>
+        <v>2.019110482536E+15</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>28</v>
@@ -2502,10 +2540,10 @@
         <v>29</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>32</v>
@@ -2514,16 +2552,16 @@
         <v>33</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="N23" s="1">
         <v>1</v>
       </c>
       <c r="O23" s="1">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>36</v>
@@ -2538,29 +2576,29 @@
         <v>0</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="1">
-        <v>56466394</v>
+        <v>63730537</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="1">
-        <v>2.0190825346705E+15</v>
+        <v>2.0191102617995E+15</v>
       </c>
       <c r="E24" s="1">
-        <v>2.0190825885592E+15</v>
+        <v>2.01911024656E+15</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>28</v>
@@ -2569,10 +2607,10 @@
         <v>29</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>32</v>
@@ -2581,7 +2619,7 @@
         <v>33</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>35</v>
@@ -2590,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="1">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>36</v>
@@ -2605,41 +2643,41 @@
         <v>0</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="1">
-        <v>56466459</v>
+        <v>60937959</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="1">
-        <v>2.019082534683E+15</v>
+        <v>2.0191007395801E+15</v>
       </c>
       <c r="E25" s="1">
-        <v>2.0190825885799E+15</v>
+        <v>2.0191007184738E+15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>32</v>
@@ -2648,22 +2686,22 @@
         <v>33</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="N25" s="1">
         <v>1</v>
       </c>
       <c r="O25" s="1">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -2672,41 +2710,46 @@
         <v>0</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
+      <c r="Y25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="1">
-        <v>55320860</v>
+        <v>60938114</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="1">
-        <v>2.0190816284614E+15</v>
+        <v>2.0191007395999E+15</v>
       </c>
       <c r="E26" s="1">
-        <v>2.0190816234488E+15</v>
+        <v>2.0191007185053E+15</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>32</v>
@@ -2715,22 +2758,22 @@
         <v>33</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="N26" s="1">
         <v>1</v>
       </c>
       <c r="O26" s="1">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -2739,41 +2782,46 @@
         <v>0</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
+      <c r="Y26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="1">
-        <v>57132888</v>
+        <v>61373049</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="1">
-        <v>2.0190831113656E+15</v>
+        <v>2.0191011856972E+15</v>
       </c>
       <c r="E27" s="1">
-        <v>2.0190831169327E+15</v>
+        <v>2.0191011940869E+15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>32</v>
@@ -2782,22 +2830,22 @@
         <v>33</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="N27" s="1">
         <v>1</v>
       </c>
       <c r="O27" s="1">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -2806,46 +2854,41 @@
         <v>0</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="1">
-        <v>57381641</v>
+        <v>61373113</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="1">
-        <v>2.0190903447743E+15</v>
+        <v>2.0191011857033E+15</v>
       </c>
       <c r="E28" s="1">
-        <v>2.0190903723733E+15</v>
+        <v>2.0191011940967E+15</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>32</v>
@@ -2854,67 +2897,65 @@
         <v>33</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="N28" s="1">
         <v>1</v>
       </c>
       <c r="O28" s="1">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="R28" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1">
         <v>0</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="1">
-        <v>55321065</v>
+        <v>62519259</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>2.0190816284742E+15</v>
+        <v>2.0191022269198E+15</v>
       </c>
       <c r="E29" s="1">
-        <v>2.0190816234696E+15</v>
+        <v>2.019102222718E+15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>32</v>
@@ -2923,58 +2964,53 @@
         <v>33</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="N29" s="1">
         <v>1</v>
       </c>
       <c r="O29" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="R29" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1">
         <v>0</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="1">
-        <v>56594423</v>
+        <v>63732240</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="1">
-        <v>2.0190827507814E+15</v>
+        <v>2.0191102618819E+15</v>
       </c>
       <c r="E30" s="1">
-        <v>2.0190827249789E+15</v>
+        <v>2.0191102466884E+15</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>28</v>
@@ -2983,10 +3019,10 @@
         <v>29</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>32</v>
@@ -2995,7 +3031,7 @@
         <v>33</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>35</v>
@@ -3004,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="1">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>36</v>
@@ -3019,41 +3055,41 @@
         <v>0</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="1">
-        <v>57132750</v>
+        <v>63174595</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="1">
-        <v>2.0190831113489E+15</v>
+        <v>2.0191028929745E+15</v>
       </c>
       <c r="E31" s="1">
-        <v>2.0190831169066E+15</v>
+        <v>2.0191028405762E+15</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>32</v>
@@ -3062,22 +3098,22 @@
         <v>33</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="N31" s="1">
         <v>1</v>
       </c>
       <c r="O31" s="1">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
@@ -3086,46 +3122,41 @@
         <v>0</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="X31" s="1"/>
-      <c r="Y31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="1">
-        <v>57381225</v>
+        <v>60938400</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="1">
-        <v>2.0190903447222E+15</v>
+        <v>2.0191007396312E+15</v>
       </c>
       <c r="E32" s="1">
-        <v>2.0190903722845E+15</v>
+        <v>2.0191007185557E+15</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>32</v>
@@ -3134,22 +3165,22 @@
         <v>33</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="N32" s="1">
         <v>1</v>
       </c>
       <c r="O32" s="1">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="R32" s="1">
         <v>0</v>
@@ -3158,41 +3189,46 @@
         <v>0</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
+      <c r="Y32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="1">
-        <v>55103482</v>
+        <v>60938522</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="1">
-        <v>2.0190815140737E+15</v>
+        <v>2.0191007396476E+15</v>
       </c>
       <c r="E33" s="1">
-        <v>2.0190815902572E+15</v>
+        <v>2.0191007185831E+15</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>32</v>
@@ -3201,10 +3237,10 @@
         <v>33</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="N33" s="1">
         <v>1</v>
@@ -3213,10 +3249,10 @@
         <v>16000</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
@@ -3225,29 +3261,34 @@
         <v>0</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
+      <c r="Y33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="1">
-        <v>55103542</v>
+        <v>61373241</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="1">
-        <v>2.0190815140775E+15</v>
+        <v>2.0191011857164E+15</v>
       </c>
       <c r="E34" s="1">
-        <v>2.019081590263E+15</v>
+        <v>2.0191011941163E+15</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>28</v>
@@ -3256,10 +3297,10 @@
         <v>29</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>32</v>
@@ -3268,10 +3309,10 @@
         <v>33</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="N34" s="1">
         <v>1</v>
@@ -3280,7 +3321,7 @@
         <v>16000</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>37</v>
@@ -3292,41 +3333,41 @@
         <v>0</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="1">
-        <v>57132681</v>
+        <v>61373291</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="1">
-        <v>2.0190831113411E+15</v>
+        <v>2.0191011857219E+15</v>
       </c>
       <c r="E35" s="1">
-        <v>2.019083116895E+15</v>
+        <v>2.0191011941256E+15</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>32</v>
@@ -3335,22 +3376,22 @@
         <v>33</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="N35" s="1">
         <v>1</v>
       </c>
       <c r="O35" s="1">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -3359,22 +3400,17 @@
         <v>0</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="X35" s="1"/>
-      <c r="Y35" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="1">
-        <v>57381367</v>
+        <v>62519424</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>40</v>
@@ -3383,10 +3419,10 @@
         <v>27</v>
       </c>
       <c r="D36" s="1">
-        <v>2.0190903447373E+15</v>
+        <v>2.0191022269377E+15</v>
       </c>
       <c r="E36" s="1">
-        <v>2.0190903723108E+15</v>
+        <v>2.0191022227474E+15</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>28</v>
@@ -3395,10 +3431,10 @@
         <v>29</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>32</v>
@@ -3407,10 +3443,10 @@
         <v>33</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="N36" s="1">
         <v>1</v>
@@ -3431,41 +3467,41 @@
         <v>0</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="1">
-        <v>56769513</v>
+        <v>60938707</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="1">
-        <v>2.0190828700818E+15</v>
+        <v>2.0191007396708E+15</v>
       </c>
       <c r="E37" s="1">
-        <v>2.0190828566028E+15</v>
+        <v>2.0191007186214E+15</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>32</v>
@@ -3474,22 +3510,22 @@
         <v>33</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="N37" s="1">
         <v>1</v>
       </c>
       <c r="O37" s="1">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="R37" s="1">
         <v>0</v>
@@ -3498,41 +3534,46 @@
         <v>0</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
+      <c r="Y37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="1">
-        <v>56769822</v>
+        <v>60938872</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="1">
-        <v>2.0190828701099E+15</v>
+        <v>2.0191007396892E+15</v>
       </c>
       <c r="E38" s="1">
-        <v>2.0190828566476E+15</v>
+        <v>2.019100718651E+15</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>32</v>
@@ -3541,22 +3582,22 @@
         <v>33</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="N38" s="1">
         <v>1</v>
       </c>
       <c r="O38" s="1">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -3565,29 +3606,34 @@
         <v>0</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
+      <c r="Y38" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="1">
-        <v>56594610</v>
+        <v>61373346</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="1">
-        <v>2.0190827508E+15</v>
+        <v>2.0191011857282E+15</v>
       </c>
       <c r="E39" s="1">
-        <v>2.0190827250087E+15</v>
+        <v>2.0191011941354E+15</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>28</v>
@@ -3596,10 +3642,10 @@
         <v>29</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>32</v>
@@ -3608,19 +3654,19 @@
         <v>33</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="N39" s="1">
         <v>1</v>
       </c>
       <c r="O39" s="1">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>37</v>
@@ -3632,29 +3678,29 @@
         <v>0</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="1">
-        <v>56594785</v>
+        <v>61373418</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="1">
-        <v>2.0190827508149E+15</v>
+        <v>2.0191011857364E+15</v>
       </c>
       <c r="E40" s="1">
-        <v>2.0190827250347E+15</v>
+        <v>2.0191011941481E+15</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>28</v>
@@ -3663,10 +3709,10 @@
         <v>29</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>32</v>
@@ -3675,19 +3721,19 @@
         <v>33</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="N40" s="1">
         <v>1</v>
       </c>
       <c r="O40" s="1">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>37</v>
@@ -3699,13 +3745,80 @@
         <v>0</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="1">
+        <v>62519551</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2.0191022269503E+15</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2.0191022227708E+15</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1">
+        <v>20000</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
